--- a/Wall-ET/Test Case Template.xlsx
+++ b/Wall-ET/Test Case Template.xlsx
@@ -4,17 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test case template" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact001" sheetId="2" r:id="rId2"/>
+    <sheet name="Contact002" sheetId="3" r:id="rId3"/>
+    <sheet name="Contact003" sheetId="7" r:id="rId4"/>
+    <sheet name="Contact101" sheetId="4" r:id="rId5"/>
+    <sheet name="Contact102" sheetId="5" r:id="rId6"/>
+    <sheet name="Contact103" sheetId="6" r:id="rId7"/>
+    <sheet name="Contact104" sheetId="8" r:id="rId8"/>
+    <sheet name="Contact105" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -53,9 +61,6 @@
 Website: http://skillo-bg.com</t>
   </si>
   <si>
-    <t>Unique id of a test case. For ex. - TC001</t>
-  </si>
-  <si>
     <t>Clear, short and descriptive. It should be possible to execute the test case only by name</t>
   </si>
   <si>
@@ -81,6 +86,180 @@
   </si>
   <si>
     <t>The result that needs to be verified once the test is executed. Often the expected result is a quote of a requirement.</t>
+  </si>
+  <si>
+    <t>TC-Cntct-001</t>
+  </si>
+  <si>
+    <t>Contact Customer Service</t>
+  </si>
+  <si>
+    <t>Send message to the customer support</t>
+  </si>
+  <si>
+    <t>29/5/2018 20:56</t>
+  </si>
+  <si>
+    <t>Wall-ET</t>
+  </si>
+  <si>
+    <t>Open "Contact Us"</t>
+  </si>
+  <si>
+    <t>select Customer service for Subject Heading</t>
+  </si>
+  <si>
+    <t>to validate if the mail is valid</t>
+  </si>
+  <si>
+    <t>enter e-mail</t>
+  </si>
+  <si>
+    <t>attach file prt1  click button</t>
+  </si>
+  <si>
+    <t>attach file prt2 click field</t>
+  </si>
+  <si>
+    <t>open explorer to select file</t>
+  </si>
+  <si>
+    <t>-------------//---------------</t>
+  </si>
+  <si>
+    <t>enter msg</t>
+  </si>
+  <si>
+    <t>click send</t>
+  </si>
+  <si>
+    <t>send msg to Customer support (display no errors and show green msg that all is ok)</t>
+  </si>
+  <si>
+    <t>TC-Cntct-002</t>
+  </si>
+  <si>
+    <t>Contact Webmaster</t>
+  </si>
+  <si>
+    <t>Send message to the Webmaster</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:13</t>
+  </si>
+  <si>
+    <t>select Webmaster for Subject Heading</t>
+  </si>
+  <si>
+    <t>select file</t>
+  </si>
+  <si>
+    <t>Display name of file in field</t>
+  </si>
+  <si>
+    <t>TC-Cntct-101</t>
+  </si>
+  <si>
+    <t>Test if mail field in Contact us accepts invalid values</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:18</t>
+  </si>
+  <si>
+    <t>validates the formatting</t>
+  </si>
+  <si>
+    <t>enter wrong formatted mail value and go to next field</t>
+  </si>
+  <si>
+    <t>display red error msg for wrong mail and do not send msg</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:23</t>
+  </si>
+  <si>
+    <t>display red error msg for empty msg and do not send it</t>
+  </si>
+  <si>
+    <t>leave msg field empty</t>
+  </si>
+  <si>
+    <t>TC-Cntct-102</t>
+  </si>
+  <si>
+    <t>TC-Cntct-103</t>
+  </si>
+  <si>
+    <t>Test if mail field in Contact us accepts empty values</t>
+  </si>
+  <si>
+    <t>leave email field empty</t>
+  </si>
+  <si>
+    <t>send msg</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:27</t>
+  </si>
+  <si>
+    <t>TC-Cntct-003</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:29</t>
+  </si>
+  <si>
+    <t>enter valid mail with new TLD</t>
+  </si>
+  <si>
+    <t>display no errors and allow msg to be send</t>
+  </si>
+  <si>
+    <t>TC-Cntct-104</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:32</t>
+  </si>
+  <si>
+    <t>leave Subject field empty</t>
+  </si>
+  <si>
+    <t>display red error msg for not selected Subject and do not send msg</t>
+  </si>
+  <si>
+    <t>TC-Cntct-105</t>
+  </si>
+  <si>
+    <t>enter valid mail with non existant TLD</t>
+  </si>
+  <si>
+    <t>display errors and do not allow msg to be send</t>
+  </si>
+  <si>
+    <t>Does it accept mails with not existant TLD (Top Level Domain)</t>
+  </si>
+  <si>
+    <t>29/5/2018 21:39</t>
+  </si>
+  <si>
+    <t>Does it accept mails with new TLD (Top Level Domain: .com, .net, .gold, .photography)</t>
+  </si>
+  <si>
+    <t>New TLD are accepted for mail</t>
+  </si>
+  <si>
+    <t>wrong mail is accepted</t>
+  </si>
+  <si>
+    <t>Empty MSG is accepted</t>
+  </si>
+  <si>
+    <t>empty mail is accepted</t>
+  </si>
+  <si>
+    <t>Empty Subject is accepted</t>
+  </si>
+  <si>
+    <t>Invalid TLD mailsis accepted</t>
   </si>
 </sst>
 </file>
@@ -126,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,13 +328,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,11 +362,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -182,6 +384,350 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -511,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,88 +1070,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
@@ -616,24 +1162,24 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -644,4 +1190,1244 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>